--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CCD0F0-654C-9F4A-BB99-410238A4AC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A779D0E-5F43-6F4B-8B03-8A919909C59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="573">
   <si>
     <t>Epoch</t>
   </si>
@@ -1779,12 +1779,6 @@
     <t>Protocol Approval</t>
   </si>
   <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t>GLOBAL</t>
-  </si>
-  <si>
     <t>Sponsor Approval Date</t>
   </si>
   <si>
@@ -1792,6 +1786,18 @@
   </si>
   <si>
     <t>SCOPE1</t>
+  </si>
+  <si>
+    <t>country: GBR, country:FRA</t>
+  </si>
+  <si>
+    <t>region:asia</t>
+  </si>
+  <si>
+    <t>region: europe</t>
+  </si>
+  <si>
+    <t>scopes</t>
   </si>
 </sst>
 </file>
@@ -2274,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2287,6 +2293,7 @@
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="6" width="24.6640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2294,7 +2301,7 @@
         <v>484</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2421,7 +2428,7 @@
         <v>558</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2438,13 +2445,13 @@
         <v>562</v>
       </c>
       <c r="E17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F17" s="31">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2461,13 +2468,36 @@
         <v>565</v>
       </c>
       <c r="E18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F18" s="31">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="C19" t="s">
+        <v>564</v>
+      </c>
+      <c r="D19" t="s">
+        <v>565</v>
+      </c>
+      <c r="E19" t="s">
         <v>567</v>
+      </c>
+      <c r="F19" s="31">
+        <v>44958</v>
+      </c>
+      <c r="G19" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A779D0E-5F43-6F4B-8B03-8A919909C59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8361D8B3-41A0-F74B-8537-007CB5465AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -1770,6 +1770,9 @@
     <t>Design Approval</t>
   </si>
   <si>
+    <t>Global</t>
+  </si>
+  <si>
     <t>protocol_document</t>
   </si>
   <si>
@@ -1788,16 +1791,13 @@
     <t>SCOPE1</t>
   </si>
   <si>
-    <t>country: GBR, country:FRA</t>
-  </si>
-  <si>
     <t>region:asia</t>
   </si>
   <si>
-    <t>region: europe</t>
-  </si>
-  <si>
     <t>scopes</t>
+  </si>
+  <si>
+    <t>country = GBR, country=FRA, region=ASIA, country=USA</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2283,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2293,7 +2293,7 @@
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="6" width="24.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="34.5" customWidth="1"/>
+    <col min="7" max="7" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2301,7 +2301,7 @@
         <v>484</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2428,7 +2428,7 @@
         <v>558</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2445,53 +2445,53 @@
         <v>562</v>
       </c>
       <c r="E17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F17" s="31">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>560</v>
       </c>
       <c r="C18" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D18" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E18" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F18" s="31">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>560</v>
       </c>
       <c r="C19" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D19" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E19" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F19" s="31">
         <v>44958</v>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8361D8B3-41A0-F74B-8537-007CB5465AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D98B1EB-E709-E444-AFB2-6F5A473D5ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -1791,13 +1791,13 @@
     <t>SCOPE1</t>
   </si>
   <si>
-    <t>region:asia</t>
-  </si>
-  <si>
     <t>scopes</t>
   </si>
   <si>
-    <t>country = GBR, country=FRA, region=ASIA, country=USA</t>
+    <t>country : GBR, country:FRA, region:ASIA, country :USA</t>
+  </si>
+  <si>
+    <t>region=asia</t>
   </si>
 </sst>
 </file>
@@ -1951,20 +1951,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2283,7 +2283,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2428,7 +2428,7 @@
         <v>558</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2447,11 +2447,11 @@
       <c r="E17" t="s">
         <v>567</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="27">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2470,7 +2470,7 @@
       <c r="E18" t="s">
         <v>568</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="27">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
@@ -2493,11 +2493,11 @@
       <c r="E19" t="s">
         <v>568</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="27">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -4786,23 +4786,23 @@
       <c r="A1" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -4819,76 +4819,76 @@
       <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
@@ -4955,16 +4955,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5157,10 +5157,10 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D98B1EB-E709-E444-AFB2-6F5A473D5ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FE6DA7-5E8F-CE4C-ABC3-712835FD8272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="577">
   <si>
     <t>Epoch</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>endpointDescription</t>
-  </si>
-  <si>
-    <t>endpointPurposeDescription</t>
   </si>
   <si>
     <t>endpointLevel</t>
@@ -1798,6 +1795,21 @@
   </si>
   <si>
     <t>region=asia</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1902,9 +1914,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1958,10 +1967,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2282,7 +2291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -2292,212 +2301,212 @@
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" style="26" customWidth="1"/>
+    <col min="5" max="6" width="24.6640625" style="25" customWidth="1"/>
     <col min="7" max="7" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>557</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="22" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="B17" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C17" t="s">
+        <v>560</v>
+      </c>
+      <c r="D17" t="s">
+        <v>561</v>
+      </c>
+      <c r="E17" t="s">
+        <v>566</v>
+      </c>
+      <c r="F17" s="26">
+        <v>44927</v>
+      </c>
+      <c r="G17" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="C17" t="s">
-        <v>561</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>564</v>
+      </c>
+      <c r="D18" t="s">
+        <v>565</v>
+      </c>
+      <c r="E18" t="s">
+        <v>567</v>
+      </c>
+      <c r="F18" s="26">
+        <v>44927</v>
+      </c>
+      <c r="G18" t="s">
         <v>562</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C19" t="s">
+        <v>564</v>
+      </c>
+      <c r="D19" t="s">
+        <v>565</v>
+      </c>
+      <c r="E19" t="s">
         <v>567</v>
       </c>
-      <c r="F17" s="27">
-        <v>44927</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F19" s="26">
+        <v>44958</v>
+      </c>
+      <c r="G19" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="C18" t="s">
-        <v>565</v>
-      </c>
-      <c r="D18" t="s">
-        <v>566</v>
-      </c>
-      <c r="E18" t="s">
-        <v>568</v>
-      </c>
-      <c r="F18" s="27">
-        <v>44927</v>
-      </c>
-      <c r="G18" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="C19" t="s">
-        <v>565</v>
-      </c>
-      <c r="D19" t="s">
-        <v>566</v>
-      </c>
-      <c r="E19" t="s">
-        <v>568</v>
-      </c>
-      <c r="F19" s="27">
-        <v>44958</v>
-      </c>
-      <c r="G19" t="s">
-        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -2507,407 +2516,564 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="70.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="K3" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2934,91 +3100,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
         <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
         <v>168</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
         <v>169</v>
       </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>170</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3047,65 +3213,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" t="s">
         <v>191</v>
       </c>
-      <c r="B3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>193</v>
-      </c>
-      <c r="G3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3137,138 +3303,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>201</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3294,105 +3460,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>201</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3411,1238 +3577,1238 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="B64" s="23"/>
+      <c r="C64" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B78" s="23"/>
+      <c r="C78" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B85" s="23"/>
+      <c r="C85" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90" s="23"/>
+      <c r="C90" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="B91" s="23"/>
+      <c r="C91" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
+      <c r="B93" s="23"/>
+      <c r="C93" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B94" s="23"/>
+      <c r="C94" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B95" s="23"/>
+      <c r="C95" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
+      <c r="B96" s="23"/>
+      <c r="C96" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B97" s="23"/>
+      <c r="C97" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B98" s="23"/>
+      <c r="C98" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B99" s="23"/>
+      <c r="C99" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B100" s="23"/>
+      <c r="C100" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B101" s="23"/>
+      <c r="C101" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B104" s="23"/>
+      <c r="C104" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B105" s="23"/>
+      <c r="C105" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B106" s="23"/>
+      <c r="C106" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B107" s="23"/>
+      <c r="C107" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B96" s="24"/>
-      <c r="C96" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
+      <c r="B108" s="23"/>
+      <c r="C108" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="C109" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B110" s="23"/>
+      <c r="C110" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B111" s="23"/>
+      <c r="C111" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B113" s="23"/>
+      <c r="C113" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B115" s="23"/>
+      <c r="C115" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B116" s="23"/>
+      <c r="C116" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B117" s="23"/>
+      <c r="C117" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B118" s="23"/>
+      <c r="C118" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B119" s="23"/>
+      <c r="C119" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B120" s="23"/>
+      <c r="C120" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B121" s="23"/>
+      <c r="C121" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B122" s="23"/>
+      <c r="C122" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="C123" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B124" s="23"/>
+      <c r="C124" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B106" s="24"/>
-      <c r="C106" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="B110" s="24"/>
-      <c r="C110" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B112" s="24"/>
-      <c r="C112" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
+      <c r="B125" s="23"/>
+      <c r="C125" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B126" s="23"/>
+      <c r="C126" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B127" s="23"/>
+      <c r="C127" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B128" s="23"/>
+      <c r="C128" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B129" s="23"/>
+      <c r="C129" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B130" s="23"/>
+      <c r="C130" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B131" s="23"/>
+      <c r="C131" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B132" s="23"/>
+      <c r="C132" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B114" s="24"/>
-      <c r="C114" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B116" s="24"/>
-      <c r="C116" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B120" s="24"/>
-      <c r="C120" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B121" s="24"/>
-      <c r="C121" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B122" s="24"/>
-      <c r="C122" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B125" s="24"/>
-      <c r="C125" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B127" s="24"/>
-      <c r="C127" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B128" s="24"/>
-      <c r="C128" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B132" s="24"/>
-      <c r="C132" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
-        <v>551</v>
-      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
-        <v>551</v>
+      <c r="A134" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
-        <v>551</v>
+      <c r="A135" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
-        <v>551</v>
+      <c r="A136" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
-        <v>551</v>
+      <c r="A137" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
-        <v>551</v>
+      <c r="A138" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4666,18 +4832,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
         <v>163</v>
-      </c>
-      <c r="B2" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4703,22 +4869,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4733,7 +4899,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -4753,7 +4919,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -4783,116 +4949,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>223</v>
+      <c r="A12" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -4912,16 +5078,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4929,16 +5095,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4955,16 +5121,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4988,20 +5154,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>272</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5009,16 +5175,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5029,17 +5195,17 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5062,14 +5228,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>259</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5077,10 +5243,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5088,10 +5254,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5099,10 +5265,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5110,10 +5276,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5142,13 +5308,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5157,22 +5323,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5192,13 +5358,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5218,9 +5384,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5240,9 +5406,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5262,9 +5428,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -5284,32 +5450,32 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
-        <v>221</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5323,14 +5489,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>222</v>
+      <c r="C9" s="21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5412,17 +5578,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>281</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5430,7 +5596,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5438,13 +5604,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" t="s">
         <v>284</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5472,7 +5638,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>61</v>
@@ -5486,7 +5652,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -5500,7 +5666,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -5514,7 +5680,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -5528,7 +5694,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FE6DA7-5E8F-CE4C-ABC3-712835FD8272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F1B25-FB26-424F-82C0-DB4400EF77A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>trialTypes</t>
   </si>
   <si>
-    <t>line|city|district|state|postal_code|GBR</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
   </si>
   <si>
     <t>AP1234</t>
-  </si>
-  <si>
-    <t>Somewhere|In a City|In a District|In a big state|12345|FRA</t>
   </si>
   <si>
     <t>organisationAddress</t>
@@ -1810,6 +1804,12 @@
   </si>
   <si>
     <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
 </sst>
 </file>
@@ -1967,10 +1967,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2307,10 +2307,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2334,7 +2334,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2342,68 +2342,68 @@
         <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2411,102 +2411,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>557</v>
-      </c>
       <c r="G16" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" t="s">
         <v>558</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" t="s">
         <v>559</v>
       </c>
-      <c r="C17" t="s">
-        <v>560</v>
-      </c>
-      <c r="D17" t="s">
-        <v>561</v>
-      </c>
       <c r="E17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C18" t="s">
+        <v>562</v>
+      </c>
+      <c r="D18" t="s">
         <v>563</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C18" t="s">
-        <v>564</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>565</v>
-      </c>
-      <c r="E18" t="s">
-        <v>567</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C19" t="s">
+        <v>562</v>
+      </c>
+      <c r="D19" t="s">
         <v>563</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C19" t="s">
-        <v>564</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>565</v>
-      </c>
-      <c r="E19" t="s">
-        <v>567</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -2518,7 +2518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -2538,85 +2538,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2625,16 +2625,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2643,16 +2643,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2661,16 +2661,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2679,16 +2679,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2697,16 +2697,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2715,16 +2715,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2733,16 +2733,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2751,16 +2751,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2769,16 +2769,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2787,16 +2787,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3101,90 +3101,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
         <v>167</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>168</v>
       </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
         <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3213,65 +3213,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" t="s">
         <v>187</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>191</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3304,137 +3304,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3461,104 +3461,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3585,16 +3585,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3603,1212 +3603,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>552</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -4832,18 +4832,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
         <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4855,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4885,7 +4885,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4899,33 +4899,33 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -4950,10 +4950,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -4961,10 +4961,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -4974,41 +4974,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -5019,7 +5019,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -5030,7 +5030,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -5038,10 +5038,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -5058,7 +5058,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5078,16 +5078,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5095,16 +5095,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5121,16 +5121,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5155,19 +5155,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>270</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5175,16 +5175,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5195,13 +5195,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5229,13 +5229,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5243,10 +5243,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5254,10 +5254,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5265,10 +5265,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5276,10 +5276,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5309,10 +5309,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5333,10 +5333,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5359,10 +5359,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5453,29 +5453,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5496,7 +5496,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5507,7 +5507,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -5579,16 +5579,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>279</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5596,7 +5596,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5604,13 +5604,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5638,72 +5638,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5730,72 +5730,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F1B25-FB26-424F-82C0-DB4400EF77A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6A2C94-301D-F041-B95C-09B1754B63EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -20,15 +20,16 @@
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId8"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId15"/>
-    <sheet name="configuration" sheetId="10" r:id="rId16"/>
+    <sheet name="studyDesignInterventions" sheetId="18" r:id="rId8"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
+    <sheet name="configuration" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="614">
   <si>
     <t>Epoch</t>
   </si>
@@ -233,34 +234,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
-  </si>
-  <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
   </si>
   <si>
     <t>populationDescription</t>
@@ -1811,12 +1794,141 @@
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1860,6 +1972,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1893,7 +2011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1967,14 +2085,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2307,10 +2427,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2347,63 +2467,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2411,102 +2531,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C17" t="s">
+        <v>552</v>
+      </c>
+      <c r="D17" t="s">
+        <v>553</v>
+      </c>
+      <c r="E17" t="s">
         <v>558</v>
-      </c>
-      <c r="D17" t="s">
-        <v>559</v>
-      </c>
-      <c r="E17" t="s">
-        <v>564</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D18" t="s">
         <v>557</v>
       </c>
-      <c r="C18" t="s">
-        <v>562</v>
-      </c>
-      <c r="D18" t="s">
-        <v>563</v>
-      </c>
       <c r="E18" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19" t="s">
+        <v>556</v>
+      </c>
+      <c r="D19" t="s">
         <v>557</v>
       </c>
-      <c r="C19" t="s">
-        <v>562</v>
-      </c>
-      <c r="D19" t="s">
-        <v>563</v>
-      </c>
       <c r="E19" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -2515,6 +2635,98 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2538,85 +2750,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2625,16 +2837,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2643,16 +2855,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2661,16 +2873,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2679,16 +2891,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2697,16 +2909,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2715,16 +2927,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2733,16 +2945,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2751,16 +2963,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2769,16 +2981,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2787,16 +2999,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3081,7 +3293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3101,90 +3313,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
         <v>111</v>
       </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
       <c r="H5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3213,65 +3425,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3284,7 +3496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3304,137 +3516,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>193</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3443,7 +3655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3461,104 +3673,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3567,7 +3779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
@@ -3585,16 +3797,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3603,1212 +3815,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +5029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4832,18 +5044,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4855,7 +5067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
@@ -4899,13 +5111,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4919,13 +5131,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -4950,10 +5162,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -4961,10 +5173,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -4974,41 +5186,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -5019,7 +5231,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -5030,7 +5242,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -5038,10 +5250,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -5049,7 +5261,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -5058,7 +5270,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5078,16 +5290,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5095,16 +5307,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5121,16 +5333,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5155,19 +5367,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5175,16 +5387,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5195,13 +5407,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5229,13 +5441,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5243,10 +5455,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5254,10 +5466,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5265,10 +5477,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5276,10 +5488,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5309,10 +5521,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5333,10 +5545,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5359,10 +5571,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5453,29 +5665,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5496,7 +5708,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5579,16 +5791,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5596,7 +5808,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5604,13 +5816,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5623,87 +5835,212 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA68797-3128-5C40-8A11-F86EF4F8D6FD}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>589</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+      <c r="D2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="G2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H2" t="s">
+        <v>595</v>
+      </c>
+      <c r="I2" t="s">
+        <v>596</v>
+      </c>
+      <c r="J2" t="s">
+        <v>597</v>
+      </c>
+      <c r="K2" t="s">
+        <v>598</v>
+      </c>
+      <c r="L2" t="s">
+        <v>599</v>
+      </c>
+      <c r="M2" t="s">
+        <v>600</v>
+      </c>
+      <c r="N2" t="s">
+        <v>601</v>
+      </c>
+      <c r="O2" t="s">
+        <v>602</v>
+      </c>
+      <c r="P2" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" t="s">
+        <v>604</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>606</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>607</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
+        <v>591</v>
+      </c>
+      <c r="E3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="G3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H3" t="s">
+        <v>609</v>
+      </c>
+      <c r="I3" t="s">
+        <v>596</v>
+      </c>
+      <c r="J3" t="s">
+        <v>610</v>
+      </c>
+      <c r="K3" t="s">
+        <v>611</v>
+      </c>
+      <c r="L3" t="s">
+        <v>612</v>
+      </c>
+      <c r="M3" t="s">
+        <v>600</v>
+      </c>
+      <c r="N3" t="s">
+        <v>601</v>
+      </c>
+      <c r="O3" t="s">
+        <v>602</v>
+      </c>
+      <c r="P3" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R3" t="s">
+        <v>604</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -5712,90 +6049,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>571</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>572</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>573</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>574</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6A2C94-301D-F041-B95C-09B1754B63EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4424BF-6E60-ED43-9758-F099E1FA9E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="616">
   <si>
     <t>Epoch</t>
   </si>
@@ -249,46 +249,16 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>Pop 1</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>Pop 2</t>
-  </si>
-  <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Pop 3</t>
-  </si>
-  <si>
     <t>70 years</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1922,6 +1892,42 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
@@ -2081,20 +2087,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2427,10 +2433,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2467,63 +2473,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2531,102 +2537,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C17" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D17" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E17" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C18" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D18" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="E18" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C19" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D19" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="E19" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -2636,89 +2642,96 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B3" t="s">
+        <v>612</v>
+      </c>
+      <c r="G3" t="s">
         <v>65</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H3" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G4" t="s">
+        <v>615</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2750,85 +2763,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2837,16 +2850,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2855,16 +2868,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2873,16 +2886,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2891,16 +2904,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2909,16 +2922,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2927,16 +2940,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2945,16 +2958,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2963,16 +2976,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2981,16 +2994,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2999,16 +3012,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3313,90 +3326,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3425,65 +3438,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3516,137 +3529,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3673,104 +3686,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3797,16 +3810,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3815,1212 +3828,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -5044,18 +5057,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5111,13 +5124,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5131,13 +5144,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -5162,115 +5175,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+        <v>231</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+        <v>232</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="B6" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+        <v>157</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5290,16 +5303,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5307,16 +5320,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5333,16 +5346,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5367,19 +5380,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5387,16 +5400,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5407,13 +5420,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5441,13 +5454,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5455,10 +5468,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5466,10 +5479,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5477,10 +5490,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5488,10 +5501,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5521,10 +5534,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5535,20 +5548,20 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5571,10 +5584,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5665,29 +5678,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5708,7 +5721,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5791,16 +5804,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5808,7 +5821,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5816,13 +5829,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5868,179 +5881,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>578</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>579</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>582</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>583</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>586</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="G2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H2" t="s">
+        <v>585</v>
+      </c>
+      <c r="I2" t="s">
+        <v>586</v>
+      </c>
+      <c r="J2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K2" t="s">
+        <v>588</v>
+      </c>
+      <c r="L2" t="s">
         <v>589</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
         <v>590</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>591</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>592</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="P2" t="s">
         <v>593</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" t="s">
         <v>594</v>
       </c>
-      <c r="H2" t="s">
+      <c r="S2" s="28" t="s">
         <v>595</v>
-      </c>
-      <c r="I2" t="s">
-        <v>596</v>
-      </c>
-      <c r="J2" t="s">
-        <v>597</v>
-      </c>
-      <c r="K2" t="s">
-        <v>598</v>
-      </c>
-      <c r="L2" t="s">
-        <v>599</v>
-      </c>
-      <c r="M2" t="s">
-        <v>600</v>
-      </c>
-      <c r="N2" t="s">
-        <v>601</v>
-      </c>
-      <c r="O2" t="s">
-        <v>602</v>
-      </c>
-      <c r="P2" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>184</v>
-      </c>
-      <c r="R2" t="s">
-        <v>604</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="C3" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="D3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="G3" t="s">
+        <v>584</v>
+      </c>
+      <c r="H3" t="s">
+        <v>599</v>
+      </c>
+      <c r="I3" t="s">
+        <v>586</v>
+      </c>
+      <c r="J3" t="s">
+        <v>600</v>
+      </c>
+      <c r="K3" t="s">
+        <v>601</v>
+      </c>
+      <c r="L3" t="s">
+        <v>602</v>
+      </c>
+      <c r="M3" t="s">
+        <v>590</v>
+      </c>
+      <c r="N3" t="s">
         <v>591</v>
       </c>
-      <c r="E3" t="s">
-        <v>608</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>593</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
+        <v>592</v>
+      </c>
+      <c r="P3" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" t="s">
         <v>594</v>
       </c>
-      <c r="H3" t="s">
-        <v>609</v>
-      </c>
-      <c r="I3" t="s">
-        <v>596</v>
-      </c>
-      <c r="J3" t="s">
-        <v>610</v>
-      </c>
-      <c r="K3" t="s">
-        <v>611</v>
-      </c>
-      <c r="L3" t="s">
-        <v>612</v>
-      </c>
-      <c r="M3" t="s">
-        <v>600</v>
-      </c>
-      <c r="N3" t="s">
-        <v>601</v>
-      </c>
-      <c r="O3" t="s">
-        <v>602</v>
-      </c>
-      <c r="P3" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>184</v>
-      </c>
-      <c r="R3" t="s">
-        <v>604</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>605</v>
+      <c r="S3" s="28" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -6052,7 +6065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -6065,13 +6078,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -6079,13 +6092,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -6093,13 +6106,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C3" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4424BF-6E60-ED43-9758-F099E1FA9E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE600CE-1341-0B47-98D5-D9513876C05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="613">
   <si>
     <t>Epoch</t>
   </si>
@@ -249,16 +249,10 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
-  </si>
-  <si>
-    <t>70 years</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1903,12 +1897,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -1921,13 +1909,16 @@
     <t>COHORT1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
     <t>COHORT2</t>
   </si>
   <si>
-    <t>31 years</t>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
   </si>
 </sst>
 </file>
@@ -2093,10 +2084,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2433,10 +2424,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2473,63 +2464,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2537,102 +2528,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C17" t="s">
         <v>540</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" t="s">
         <v>541</v>
       </c>
-      <c r="C17" t="s">
-        <v>542</v>
-      </c>
-      <c r="D17" t="s">
-        <v>543</v>
-      </c>
       <c r="E17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C18" t="s">
+        <v>544</v>
+      </c>
+      <c r="D18" t="s">
         <v>545</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="C18" t="s">
-        <v>546</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>547</v>
-      </c>
-      <c r="E18" t="s">
-        <v>549</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C19" t="s">
+        <v>544</v>
+      </c>
+      <c r="D19" t="s">
         <v>545</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="C19" t="s">
-        <v>546</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>547</v>
-      </c>
-      <c r="E19" t="s">
-        <v>549</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -2642,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2655,45 +2646,42 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>605</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="B2" t="s">
         <v>606</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>608</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B2" t="s">
-        <v>610</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2701,37 +2689,30 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G3" t="s">
         <v>611</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G4" t="s">
         <v>612</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>611</v>
-      </c>
-      <c r="B4" t="s">
-        <v>614</v>
-      </c>
-      <c r="G4" t="s">
-        <v>615</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2763,85 +2744,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2850,16 +2831,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2868,16 +2849,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2886,16 +2867,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2904,16 +2885,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2922,16 +2903,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2940,16 +2921,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2958,16 +2939,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2976,16 +2957,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2994,16 +2975,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3012,16 +2993,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3326,90 +3307,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>120</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
         <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
         <v>149</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>150</v>
       </c>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
         <v>151</v>
-      </c>
-      <c r="E5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3438,65 +3419,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
         <v>169</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>173</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3529,137 +3510,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>181</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3686,104 +3667,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3810,16 +3791,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3828,1212 +3809,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -5057,18 +5038,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5124,13 +5105,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5144,13 +5125,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -5175,10 +5156,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5186,10 +5167,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -5199,41 +5180,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -5244,7 +5225,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -5255,7 +5236,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -5263,10 +5244,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -5274,7 +5255,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5283,7 +5264,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5303,16 +5284,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5320,16 +5301,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5346,16 +5327,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5380,19 +5361,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>252</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5400,16 +5381,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5420,13 +5401,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5454,13 +5435,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5468,10 +5449,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5479,10 +5460,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5490,10 +5471,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5501,10 +5482,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5534,10 +5515,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5558,10 +5539,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5584,10 +5565,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5678,29 +5659,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5721,7 +5702,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5804,16 +5785,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>261</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5821,7 +5802,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5829,13 +5810,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5881,179 +5862,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>576</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D2" t="s">
         <v>579</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>580</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>582</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="H2" t="s">
         <v>583</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>584</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>585</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>586</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>587</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>588</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>589</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>590</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>591</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" t="s">
         <v>592</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="28" t="s">
         <v>593</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>174</v>
-      </c>
-      <c r="R2" t="s">
-        <v>594</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E3" t="s">
         <v>596</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="G3" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" t="s">
         <v>597</v>
       </c>
-      <c r="D3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>584</v>
+      </c>
+      <c r="J3" t="s">
         <v>598</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>583</v>
-      </c>
-      <c r="G3" t="s">
-        <v>584</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>599</v>
       </c>
-      <c r="I3" t="s">
-        <v>586</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>600</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>588</v>
+      </c>
+      <c r="N3" t="s">
+        <v>589</v>
+      </c>
+      <c r="O3" t="s">
+        <v>590</v>
+      </c>
+      <c r="P3" t="s">
         <v>601</v>
       </c>
-      <c r="L3" t="s">
-        <v>602</v>
-      </c>
-      <c r="M3" t="s">
-        <v>590</v>
-      </c>
-      <c r="N3" t="s">
-        <v>591</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" t="s">
         <v>592</v>
       </c>
-      <c r="P3" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R3" t="s">
-        <v>594</v>
-      </c>
       <c r="S3" s="28" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -6078,13 +6059,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -6092,13 +6073,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -6106,13 +6087,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE600CE-1341-0B47-98D5-D9513876C05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A03864-D1DF-7541-AAE1-5E91C59D8B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,18 @@
     <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignInterventions" sheetId="18" r:id="rId8"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
-    <sheet name="configuration" sheetId="10" r:id="rId17"/>
+    <sheet name="studyDesignTiming" sheetId="19" r:id="rId7"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId8"/>
+    <sheet name="studyDesignInterventions" sheetId="18" r:id="rId9"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId10"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId11"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId12"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId13"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId14"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId17"/>
+    <sheet name="configuration" sheetId="10" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,10 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="613">
-  <si>
-    <t>Epoch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="639">
   <si>
     <t>Screening</t>
   </si>
@@ -63,15 +61,6 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Cycle End Rule</t>
-  </si>
-  <si>
-    <t>A:</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -81,9 +70,6 @@
     <t>Child Activity</t>
   </si>
   <si>
-    <t>N: 0..2 Days</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
@@ -96,36 +82,12 @@
     <t>15 min</t>
   </si>
   <si>
-    <t>P: +24 Hours</t>
-  </si>
-  <si>
-    <t>0..4 Hours</t>
-  </si>
-  <si>
-    <t>N: Pre Dose</t>
-  </si>
-  <si>
     <t>Day 24</t>
   </si>
   <si>
     <t>Day 35</t>
   </si>
   <si>
-    <t>P: +7 Days</t>
-  </si>
-  <si>
-    <t>-3..3 Days</t>
-  </si>
-  <si>
-    <t>First Cycle Start</t>
-  </si>
-  <si>
-    <t>Cycle Period</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -649,12 +611,6 @@
   </si>
   <si>
     <t>E5</t>
-  </si>
-  <si>
-    <t>Encounter xref</t>
-  </si>
-  <si>
-    <t>Window</t>
   </si>
   <si>
     <t>BC/Procedure/Timeline</t>
@@ -1919,6 +1875,129 @@
   </si>
   <si>
     <t>31 .. 70 years</t>
+  </si>
+  <si>
+    <t>SCREEN</t>
+  </si>
+  <si>
+    <t>PRE DOSE</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Pre Dose</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>(EXIT)</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>timingValue</t>
+  </si>
+  <si>
+    <t>toFrom</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>TIM1</t>
+  </si>
+  <si>
+    <t>Screening timing</t>
+  </si>
+  <si>
+    <t>BEFORE</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>S2S</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>Pre dose timing</t>
+  </si>
+  <si>
+    <t>Pre dose</t>
+  </si>
+  <si>
+    <t>0..4 hours</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>Dosing anchor</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>AFTER</t>
+  </si>
+  <si>
+    <t>TIM5</t>
+  </si>
+  <si>
+    <t>Follow up timing</t>
+  </si>
+  <si>
+    <t>-3..3 days</t>
+  </si>
+  <si>
+    <t>24 Hours</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>24 Hour timing</t>
   </si>
 </sst>
 </file>
@@ -2008,7 +2087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2084,13 +2163,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2110,9 +2186,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2150,7 +2226,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2256,7 +2332,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2398,7 +2474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2424,206 +2500,206 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C17" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="D17" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="E17" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C18" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="D18" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="E18" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C19" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="D19" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="E19" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -2632,10 +2708,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2652,36 +2790,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="B2" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2690,29 +2828,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="B3" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="G3" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="B4" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="G4" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -2720,7 +2858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2744,85 +2882,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2831,16 +2969,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2849,16 +2987,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2867,16 +3005,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2885,16 +3023,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2903,16 +3041,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2921,16 +3059,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2939,16 +3077,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2957,16 +3095,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2975,16 +3113,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2993,16 +3131,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3287,7 +3425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3307,90 +3445,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3398,7 +3536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3419,65 +3557,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3490,7 +3628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3510,137 +3648,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3649,7 +3787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3667,104 +3805,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3773,7 +3911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
@@ -3791,1230 +3929,1230 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -5023,7 +5161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -5038,18 +5176,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5076,62 +5214,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -5156,10 +5294,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5167,10 +5305,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -5178,43 +5316,43 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -5222,10 +5360,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -5233,10 +5371,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -5244,10 +5382,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -5255,7 +5393,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5264,53 +5402,53 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5327,16 +5465,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5361,53 +5499,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5435,57 +5573,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5501,13 +5639,13 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:B11"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" style="1"/>
@@ -5515,258 +5653,435 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>448</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>603</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>604</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>605</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>21</v>
+        <v>521</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>606</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>605</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>607</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>607</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>607</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>607</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>4</v>
+        <v>608</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>599</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>601</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>602</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>199</v>
+        <v>611</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2559A82F-98B5-964F-A3E4-EB6B96739845}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G2" t="s">
+        <v>621</v>
+      </c>
+      <c r="H2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>622</v>
+      </c>
+      <c r="I3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E4" t="s">
+        <v>600</v>
+      </c>
+      <c r="F4" t="s">
+        <v>600</v>
+      </c>
+      <c r="G4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E5" t="s">
+        <v>601</v>
+      </c>
+      <c r="F5" t="s">
+        <v>600</v>
+      </c>
+      <c r="G5" t="s">
+        <v>636</v>
+      </c>
+      <c r="H5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" t="s">
+        <v>632</v>
+      </c>
+      <c r="E6" t="s">
+        <v>602</v>
+      </c>
+      <c r="F6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G6" t="s">
+        <v>637</v>
+      </c>
+      <c r="H6" t="s">
+        <v>622</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -5785,38 +6100,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5828,7 +6143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA68797-3128-5C40-8A11-F86EF4F8D6FD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -5862,241 +6177,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="G2" t="s">
+        <v>567</v>
+      </c>
+      <c r="H2" t="s">
+        <v>568</v>
+      </c>
+      <c r="I2" t="s">
+        <v>569</v>
+      </c>
+      <c r="J2" t="s">
+        <v>570</v>
+      </c>
+      <c r="K2" t="s">
+        <v>571</v>
+      </c>
+      <c r="L2" t="s">
+        <v>572</v>
+      </c>
+      <c r="M2" t="s">
+        <v>573</v>
+      </c>
+      <c r="N2" t="s">
+        <v>574</v>
+      </c>
+      <c r="O2" t="s">
+        <v>575</v>
+      </c>
+      <c r="P2" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" t="s">
         <v>577</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" s="28" t="s">
         <v>578</v>
-      </c>
-      <c r="D2" t="s">
-        <v>579</v>
-      </c>
-      <c r="E2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="G2" t="s">
-        <v>582</v>
-      </c>
-      <c r="H2" t="s">
-        <v>583</v>
-      </c>
-      <c r="I2" t="s">
-        <v>584</v>
-      </c>
-      <c r="J2" t="s">
-        <v>585</v>
-      </c>
-      <c r="K2" t="s">
-        <v>586</v>
-      </c>
-      <c r="L2" t="s">
-        <v>587</v>
-      </c>
-      <c r="M2" t="s">
-        <v>588</v>
-      </c>
-      <c r="N2" t="s">
-        <v>589</v>
-      </c>
-      <c r="O2" t="s">
-        <v>590</v>
-      </c>
-      <c r="P2" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>172</v>
-      </c>
-      <c r="R2" t="s">
-        <v>592</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="C3" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="D3" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="E3" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="G3" t="s">
+        <v>567</v>
+      </c>
+      <c r="H3" t="s">
         <v>582</v>
       </c>
-      <c r="H3" t="s">
-        <v>597</v>
-      </c>
       <c r="I3" t="s">
+        <v>569</v>
+      </c>
+      <c r="J3" t="s">
+        <v>583</v>
+      </c>
+      <c r="K3" t="s">
         <v>584</v>
       </c>
-      <c r="J3" t="s">
-        <v>598</v>
-      </c>
-      <c r="K3" t="s">
-        <v>599</v>
-      </c>
       <c r="L3" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="M3" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="N3" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="O3" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="P3" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="R3" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="S3" s="28" t="s">
-        <v>593</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A03864-D1DF-7541-AAE1-5E91C59D8B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226EF227-6E5A-E040-9945-A1F70EF77417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="638">
   <si>
     <t>Screening</t>
   </si>
@@ -1778,18 +1778,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -1826,12 +1820,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -1998,6 +1986,15 @@
   </si>
   <si>
     <t>24 Hour timing</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2163,10 +2160,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2186,9 +2183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2226,7 +2223,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2332,7 +2329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2474,7 +2471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2790,7 +2787,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>448</v>
@@ -2802,13 +2799,13 @@
         <v>521</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>52</v>
@@ -2816,10 +2813,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2833,24 +2830,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" t="s">
+        <v>589</v>
+      </c>
+      <c r="G3" t="s">
         <v>592</v>
-      </c>
-      <c r="B3" t="s">
-        <v>593</v>
-      </c>
-      <c r="G3" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -5318,34 +5315,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5465,16 +5462,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5662,19 +5659,19 @@
         <v>448</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -5691,13 +5688,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>196</v>
@@ -5714,7 +5711,7 @@
         <v>521</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5723,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>196</v>
@@ -5735,46 +5732,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5786,7 +5783,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5808,7 +5805,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>181</v>
@@ -5899,7 +5896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2559A82F-98B5-964F-A3E4-EB6B96739845}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5925,123 +5922,123 @@
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
+        <v>618</v>
+      </c>
+      <c r="I3" t="s">
         <v>622</v>
-      </c>
-      <c r="I3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F5" t="s">
+        <v>596</v>
+      </c>
+      <c r="G5" t="s">
         <v>632</v>
       </c>
-      <c r="E5" t="s">
-        <v>601</v>
-      </c>
-      <c r="F5" t="s">
-        <v>600</v>
-      </c>
-      <c r="G5" t="s">
-        <v>636</v>
-      </c>
       <c r="H5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -6049,31 +6046,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B6" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C6" t="s">
         <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -6147,8 +6144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA68797-3128-5C40-8A11-F86EF4F8D6FD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6248,49 +6245,49 @@
         <v>564</v>
       </c>
       <c r="E2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" t="s">
         <v>566</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>636</v>
+      </c>
+      <c r="I2" t="s">
         <v>567</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>568</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>569</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>570</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>571</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>572</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>573</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>574</v>
-      </c>
-      <c r="O2" t="s">
-        <v>575</v>
-      </c>
-      <c r="P2" t="s">
-        <v>576</v>
       </c>
       <c r="Q2" t="s">
         <v>159</v>
       </c>
       <c r="R2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="S2" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -6298,58 +6295,58 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D3" t="s">
         <v>564</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="G3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H3" t="s">
+        <v>637</v>
+      </c>
+      <c r="I3" t="s">
+        <v>567</v>
+      </c>
+      <c r="J3" t="s">
+        <v>579</v>
+      </c>
+      <c r="K3" t="s">
+        <v>580</v>
+      </c>
+      <c r="L3" t="s">
         <v>581</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="G3" t="s">
-        <v>567</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>571</v>
+      </c>
+      <c r="N3" t="s">
+        <v>572</v>
+      </c>
+      <c r="O3" t="s">
+        <v>573</v>
+      </c>
+      <c r="P3" t="s">
         <v>582</v>
-      </c>
-      <c r="I3" t="s">
-        <v>569</v>
-      </c>
-      <c r="J3" t="s">
-        <v>583</v>
-      </c>
-      <c r="K3" t="s">
-        <v>584</v>
-      </c>
-      <c r="L3" t="s">
-        <v>585</v>
-      </c>
-      <c r="M3" t="s">
-        <v>573</v>
-      </c>
-      <c r="N3" t="s">
-        <v>574</v>
-      </c>
-      <c r="O3" t="s">
-        <v>575</v>
-      </c>
-      <c r="P3" t="s">
-        <v>586</v>
       </c>
       <c r="Q3" t="s">
         <v>159</v>
       </c>
       <c r="R3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="S3" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226EF227-6E5A-E040-9945-A1F70EF77417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A72130-6B83-0640-9022-0FD45253125F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -232,9 +232,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
   </si>
   <si>
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
   </si>
   <si>
     <t>Time to clinical improvement (TTCI) defined as a National Early Warning Score 2 (NEWS2) of &lt;=2 maintained for 24 hours</t>
@@ -1995,6 +1989,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2160,10 +2160,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2183,9 +2183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2223,7 +2223,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2329,7 +2329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2471,7 +2471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2497,10 +2497,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2537,63 +2537,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>17</v>
@@ -2601,102 +2601,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C17" t="s">
         <v>523</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" t="s">
         <v>524</v>
       </c>
-      <c r="C17" t="s">
-        <v>525</v>
-      </c>
-      <c r="D17" t="s">
-        <v>526</v>
-      </c>
       <c r="E17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" t="s">
         <v>528</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C18" t="s">
-        <v>529</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>530</v>
-      </c>
-      <c r="E18" t="s">
-        <v>532</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" t="s">
         <v>528</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C19" t="s">
-        <v>529</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>530</v>
-      </c>
-      <c r="E19" t="s">
-        <v>532</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -2721,13 +2721,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>48</v>
@@ -2735,13 +2735,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>49</v>
@@ -2749,13 +2749,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>50</v>
@@ -2787,25 +2787,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>52</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2830,24 +2830,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B4" t="s">
         <v>588</v>
       </c>
-      <c r="B4" t="s">
-        <v>590</v>
-      </c>
       <c r="G4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -2859,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2879,34 +2879,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>56</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>539</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>541</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>57</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2922,42 +2922,42 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>636</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>63</v>
+        <v>637</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2966,16 +2966,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2984,16 +2984,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3002,16 +3002,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3020,16 +3020,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3038,16 +3038,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3056,16 +3056,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3074,16 +3074,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3092,16 +3092,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3110,16 +3110,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3128,16 +3128,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3442,90 +3442,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>134</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
         <v>136</v>
-      </c>
-      <c r="E5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3554,65 +3554,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>158</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3645,137 +3645,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3802,104 +3802,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3926,16 +3926,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3944,1212 +3944,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5173,18 +5173,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5240,13 +5240,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5260,13 +5260,13 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -5291,10 +5291,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5302,10 +5302,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -5315,41 +5315,41 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -5360,7 +5360,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -5371,7 +5371,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
@@ -5419,16 +5419,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5436,16 +5436,16 @@
         <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5462,16 +5462,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5496,19 +5496,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>235</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5516,16 +5516,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5536,13 +5536,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5570,13 +5570,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>222</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5584,10 +5584,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5595,10 +5595,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5606,10 +5606,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5617,10 +5617,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5650,36 +5650,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>47</v>
@@ -5688,30 +5688,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5720,10 +5720,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5732,46 +5732,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>598</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5783,7 +5783,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5805,22 +5805,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5831,7 +5831,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5910,135 +5910,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="E2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F2" t="s">
+        <v>593</v>
+      </c>
+      <c r="G2" t="s">
+        <v>615</v>
+      </c>
+      <c r="H2" t="s">
         <v>616</v>
-      </c>
-      <c r="E2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F2" t="s">
-        <v>595</v>
-      </c>
-      <c r="G2" t="s">
-        <v>617</v>
-      </c>
-      <c r="H2" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C3" t="s">
         <v>619</v>
       </c>
-      <c r="B3" t="s">
-        <v>620</v>
-      </c>
-      <c r="C3" t="s">
-        <v>621</v>
-      </c>
       <c r="D3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D4" t="s">
         <v>623</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F4" t="s">
+        <v>594</v>
+      </c>
+      <c r="G4" t="s">
         <v>624</v>
-      </c>
-      <c r="C4" t="s">
-        <v>600</v>
-      </c>
-      <c r="D4" t="s">
-        <v>625</v>
-      </c>
-      <c r="E4" t="s">
-        <v>596</v>
-      </c>
-      <c r="F4" t="s">
-        <v>596</v>
-      </c>
-      <c r="G4" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -6046,31 +6046,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E6" t="s">
+        <v>596</v>
+      </c>
+      <c r="F6" t="s">
+        <v>594</v>
+      </c>
+      <c r="G6" t="s">
+        <v>631</v>
+      </c>
+      <c r="H6" t="s">
+        <v>616</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="B6" t="s">
-        <v>630</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" t="s">
-        <v>628</v>
-      </c>
-      <c r="E6" t="s">
-        <v>598</v>
-      </c>
-      <c r="F6" t="s">
-        <v>596</v>
-      </c>
-      <c r="G6" t="s">
-        <v>633</v>
-      </c>
-      <c r="H6" t="s">
-        <v>618</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -6097,16 +6097,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6114,7 +6114,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6122,13 +6122,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6144,7 +6144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA68797-3128-5C40-8A11-F86EF4F8D6FD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -6174,179 +6174,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>559</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" t="s">
         <v>562</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>564</v>
       </c>
-      <c r="E2" t="s">
-        <v>635</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="H2" t="s">
+        <v>634</v>
+      </c>
+      <c r="I2" t="s">
         <v>565</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>566</v>
       </c>
-      <c r="H2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>567</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>568</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>569</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>570</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>571</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>572</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" t="s">
         <v>573</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="28" t="s">
         <v>574</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>159</v>
-      </c>
-      <c r="R2" t="s">
-        <v>575</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="G3" t="s">
+        <v>564</v>
+      </c>
+      <c r="H3" t="s">
+        <v>635</v>
+      </c>
+      <c r="I3" t="s">
         <v>565</v>
       </c>
-      <c r="G3" t="s">
-        <v>566</v>
-      </c>
-      <c r="H3" t="s">
-        <v>637</v>
-      </c>
-      <c r="I3" t="s">
-        <v>567</v>
-      </c>
       <c r="J3" t="s">
+        <v>577</v>
+      </c>
+      <c r="K3" t="s">
+        <v>578</v>
+      </c>
+      <c r="L3" t="s">
         <v>579</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>569</v>
+      </c>
+      <c r="N3" t="s">
+        <v>570</v>
+      </c>
+      <c r="O3" t="s">
+        <v>571</v>
+      </c>
+      <c r="P3" t="s">
         <v>580</v>
       </c>
-      <c r="L3" t="s">
-        <v>581</v>
-      </c>
-      <c r="M3" t="s">
-        <v>571</v>
-      </c>
-      <c r="N3" t="s">
-        <v>572</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" t="s">
         <v>573</v>
       </c>
-      <c r="P3" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R3" t="s">
-        <v>575</v>
-      </c>
       <c r="S3" s="28" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A72130-6B83-0640-9022-0FD45253125F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B710B-0D03-694D-AF8A-B72F5DA4D734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64600" yWindow="4160" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="27840" yWindow="500" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="638">
   <si>
     <t>Screening</t>
   </si>
@@ -2160,10 +2160,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2859,7 +2859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -5315,34 +5315,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5462,16 +5462,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5632,11 +5632,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5835,9 +5835,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -5861,9 +5859,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B710B-0D03-694D-AF8A-B72F5DA4D734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC252880-EC3B-D448-9DD7-0AFB8DD1A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27840" yWindow="500" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="44200" yWindow="3600" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="641">
   <si>
     <t>Screening</t>
   </si>
@@ -1996,12 +1996,21 @@
   <si>
     <t>Secondary Objective</t>
   </si>
+  <si>
+    <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2027,14 +2036,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2084,7 +2085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2111,10 +2112,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2154,16 +2151,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2491,12 +2488,12 @@
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" style="25" customWidth="1"/>
+    <col min="5" max="6" width="24.6640625" style="23" customWidth="1"/>
     <col min="7" max="7" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>446</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -2504,7 +2501,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2512,15 +2509,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2528,7 +2525,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2536,7 +2533,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2544,7 +2541,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2552,15 +2549,15 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2568,7 +2565,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2576,7 +2573,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2584,7 +2581,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2592,15 +2589,15 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2608,25 +2605,25 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>532</v>
       </c>
     </row>
@@ -2646,7 +2643,7 @@
       <c r="E17" t="s">
         <v>529</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
@@ -2669,7 +2666,7 @@
       <c r="E18" t="s">
         <v>530</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
@@ -2692,7 +2689,7 @@
       <c r="E19" t="s">
         <v>530</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="24">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
@@ -2720,16 +2717,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2786,28 +2783,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2878,37 +2875,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3424,49 +3421,56 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+    <col min="3" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="61.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="19" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="19" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -3476,33 +3480,47 @@
       <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="E2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>83</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
+      <c r="J2" s="10" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D3" s="10"/>
+      <c r="I3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
+      <c r="J3" s="10" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D4" s="10"/>
+      <c r="I4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" s="10" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -3512,20 +3530,26 @@
       <c r="C5" t="s">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="E5" t="s">
         <v>134</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>135</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>136</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -3556,22 +3580,22 @@
       <c r="A1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3644,28 +3668,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3801,19 +3825,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3925,16 +3949,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3942,7 +3966,7 @@
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
         <v>250</v>
       </c>
@@ -4007,7 +4031,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>514</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -4037,7 +4061,7 @@
       <c r="A13" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
         <v>261</v>
       </c>
@@ -4046,7 +4070,7 @@
       <c r="A14" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
         <v>262</v>
       </c>
@@ -4055,7 +4079,7 @@
       <c r="A15" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
         <v>263</v>
       </c>
@@ -4064,7 +4088,7 @@
       <c r="A16" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
         <v>264</v>
       </c>
@@ -4073,7 +4097,7 @@
       <c r="A17" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
         <v>265</v>
       </c>
@@ -4082,7 +4106,7 @@
       <c r="A18" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="9" t="s">
         <v>266</v>
       </c>
@@ -4091,7 +4115,7 @@
       <c r="A19" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
         <v>267</v>
       </c>
@@ -4100,7 +4124,7 @@
       <c r="A20" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
         <v>254</v>
       </c>
@@ -4109,7 +4133,7 @@
       <c r="A21" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="9" t="s">
         <v>268</v>
       </c>
@@ -4118,7 +4142,7 @@
       <c r="A22" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="9" t="s">
         <v>269</v>
       </c>
@@ -4127,7 +4151,7 @@
       <c r="A23" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="9" t="s">
         <v>270</v>
       </c>
@@ -4139,7 +4163,7 @@
       <c r="A24" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="9" t="s">
         <v>271</v>
       </c>
@@ -4151,7 +4175,7 @@
       <c r="A25" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
         <v>272</v>
       </c>
@@ -4160,7 +4184,7 @@
       <c r="A26" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="9" t="s">
         <v>273</v>
       </c>
@@ -4169,7 +4193,7 @@
       <c r="A27" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="9" t="s">
         <v>274</v>
       </c>
@@ -4178,7 +4202,7 @@
       <c r="A28" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="9" t="s">
         <v>275</v>
       </c>
@@ -4187,7 +4211,7 @@
       <c r="A29" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="9" t="s">
         <v>276</v>
       </c>
@@ -4196,7 +4220,7 @@
       <c r="A30" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="9" t="s">
         <v>277</v>
       </c>
@@ -4205,7 +4229,7 @@
       <c r="A31" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="9" t="s">
         <v>278</v>
       </c>
@@ -4214,7 +4238,7 @@
       <c r="A32" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="9" t="s">
         <v>279</v>
       </c>
@@ -4223,7 +4247,7 @@
       <c r="A33" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="9" t="s">
         <v>280</v>
       </c>
@@ -4232,7 +4256,7 @@
       <c r="A34" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="9" t="s">
         <v>281</v>
       </c>
@@ -4241,7 +4265,7 @@
       <c r="A35" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="9" t="s">
         <v>282</v>
       </c>
@@ -4250,7 +4274,7 @@
       <c r="A36" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="9" t="s">
         <v>283</v>
       </c>
@@ -4259,7 +4283,7 @@
       <c r="A37" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
         <v>284</v>
       </c>
@@ -4268,7 +4292,7 @@
       <c r="A38" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B38" s="23"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="9" t="s">
         <v>285</v>
       </c>
@@ -4277,7 +4301,7 @@
       <c r="A39" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="9" t="s">
         <v>286</v>
       </c>
@@ -4286,7 +4310,7 @@
       <c r="A40" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
         <v>287</v>
       </c>
@@ -4295,7 +4319,7 @@
       <c r="A41" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="9" t="s">
         <v>288</v>
       </c>
@@ -4304,7 +4328,7 @@
       <c r="A42" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="9" t="s">
         <v>289</v>
       </c>
@@ -4313,7 +4337,7 @@
       <c r="A43" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B43" s="23"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="9" t="s">
         <v>290</v>
       </c>
@@ -4322,7 +4346,7 @@
       <c r="A44" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B44" s="23"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="9" t="s">
         <v>291</v>
       </c>
@@ -4334,7 +4358,7 @@
       <c r="A45" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B45" s="23"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="9" t="s">
         <v>292</v>
       </c>
@@ -4343,7 +4367,7 @@
       <c r="A46" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B46" s="23"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="9" t="s">
         <v>293</v>
       </c>
@@ -4352,7 +4376,7 @@
       <c r="A47" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B47" s="23"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="9" t="s">
         <v>294</v>
       </c>
@@ -4361,7 +4385,7 @@
       <c r="A48" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B48" s="23"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="9" t="s">
         <v>295</v>
       </c>
@@ -4370,7 +4394,7 @@
       <c r="A49" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="9" t="s">
         <v>296</v>
       </c>
@@ -4379,7 +4403,7 @@
       <c r="A50" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="9" t="s">
         <v>297</v>
       </c>
@@ -4388,7 +4412,7 @@
       <c r="A51" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
         <v>379</v>
       </c>
@@ -4397,7 +4421,7 @@
       <c r="A52" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="9" t="s">
         <v>298</v>
       </c>
@@ -4406,7 +4430,7 @@
       <c r="A53" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="9" t="s">
         <v>299</v>
       </c>
@@ -4415,7 +4439,7 @@
       <c r="A54" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="9" t="s">
         <v>300</v>
       </c>
@@ -4424,7 +4448,7 @@
       <c r="A55" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B55" s="23"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="9" t="s">
         <v>301</v>
       </c>
@@ -4433,7 +4457,7 @@
       <c r="A56" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="9" t="s">
         <v>302</v>
       </c>
@@ -4442,7 +4466,7 @@
       <c r="A57" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B57" s="23"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="9" t="s">
         <v>303</v>
       </c>
@@ -4451,7 +4475,7 @@
       <c r="A58" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="9" t="s">
         <v>304</v>
       </c>
@@ -4460,7 +4484,7 @@
       <c r="A59" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B59" s="23"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="9" t="s">
         <v>305</v>
       </c>
@@ -4469,7 +4493,7 @@
       <c r="A60" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B60" s="23"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="9" t="s">
         <v>306</v>
       </c>
@@ -4478,7 +4502,7 @@
       <c r="A61" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="B61" s="23"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="9" t="s">
         <v>307</v>
       </c>
@@ -4487,7 +4511,7 @@
       <c r="A62" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="9" t="s">
         <v>308</v>
       </c>
@@ -4496,7 +4520,7 @@
       <c r="A63" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B63" s="23"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="9" t="s">
         <v>309</v>
       </c>
@@ -4505,7 +4529,7 @@
       <c r="A64" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="9" t="s">
         <v>310</v>
       </c>
@@ -4514,7 +4538,7 @@
       <c r="A65" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B65" s="23"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="9" t="s">
         <v>311</v>
       </c>
@@ -4523,7 +4547,7 @@
       <c r="A66" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="B66" s="23"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="9" t="s">
         <v>312</v>
       </c>
@@ -4532,7 +4556,7 @@
       <c r="A67" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B67" s="23"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="9" t="s">
         <v>313</v>
       </c>
@@ -4541,7 +4565,7 @@
       <c r="A68" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B68" s="23"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="9" t="s">
         <v>314</v>
       </c>
@@ -4550,7 +4574,7 @@
       <c r="A69" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B69" s="23"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="9" t="s">
         <v>315</v>
       </c>
@@ -4559,7 +4583,7 @@
       <c r="A70" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B70" s="23"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="9" t="s">
         <v>316</v>
       </c>
@@ -4568,7 +4592,7 @@
       <c r="A71" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B71" s="23"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="9" t="s">
         <v>317</v>
       </c>
@@ -4577,7 +4601,7 @@
       <c r="A72" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B72" s="23"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="9" t="s">
         <v>318</v>
       </c>
@@ -4586,7 +4610,7 @@
       <c r="A73" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="B73" s="23"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="9" t="s">
         <v>319</v>
       </c>
@@ -4595,7 +4619,7 @@
       <c r="A74" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B74" s="23"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="9" t="s">
         <v>320</v>
       </c>
@@ -4604,7 +4628,7 @@
       <c r="A75" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B75" s="23"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="9" t="s">
         <v>321</v>
       </c>
@@ -4613,7 +4637,7 @@
       <c r="A76" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B76" s="23"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="9" t="s">
         <v>322</v>
       </c>
@@ -4622,7 +4646,7 @@
       <c r="A77" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="B77" s="23"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="9" t="s">
         <v>323</v>
       </c>
@@ -4631,7 +4655,7 @@
       <c r="A78" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B78" s="23"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="9" t="s">
         <v>324</v>
       </c>
@@ -4640,7 +4664,7 @@
       <c r="A79" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="B79" s="23"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="9" t="s">
         <v>325</v>
       </c>
@@ -4649,7 +4673,7 @@
       <c r="A80" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B80" s="23"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="9" t="s">
         <v>326</v>
       </c>
@@ -4658,7 +4682,7 @@
       <c r="A81" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B81" s="23"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="9" t="s">
         <v>327</v>
       </c>
@@ -4667,7 +4691,7 @@
       <c r="A82" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B82" s="23"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="9" t="s">
         <v>328</v>
       </c>
@@ -4676,7 +4700,7 @@
       <c r="A83" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B83" s="23"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="9" t="s">
         <v>329</v>
       </c>
@@ -4685,7 +4709,7 @@
       <c r="A84" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B84" s="23"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="9" t="s">
         <v>330</v>
       </c>
@@ -4694,7 +4718,7 @@
       <c r="A85" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B85" s="23"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="9" t="s">
         <v>331</v>
       </c>
@@ -4703,7 +4727,7 @@
       <c r="A86" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B86" s="23"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="9" t="s">
         <v>332</v>
       </c>
@@ -4712,7 +4736,7 @@
       <c r="A87" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B87" s="23"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="9" t="s">
         <v>333</v>
       </c>
@@ -4721,7 +4745,7 @@
       <c r="A88" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="B88" s="23"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="9" t="s">
         <v>334</v>
       </c>
@@ -4730,7 +4754,7 @@
       <c r="A89" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B89" s="23"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="9" t="s">
         <v>335</v>
       </c>
@@ -4739,7 +4763,7 @@
       <c r="A90" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="B90" s="23"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="9" t="s">
         <v>336</v>
       </c>
@@ -4748,7 +4772,7 @@
       <c r="A91" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B91" s="23"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="9" t="s">
         <v>337</v>
       </c>
@@ -4757,7 +4781,7 @@
       <c r="A92" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="B92" s="23"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="9" t="s">
         <v>338</v>
       </c>
@@ -4766,7 +4790,7 @@
       <c r="A93" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B93" s="23"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="9" t="s">
         <v>339</v>
       </c>
@@ -4775,7 +4799,7 @@
       <c r="A94" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="B94" s="23"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="9" t="s">
         <v>340</v>
       </c>
@@ -4784,7 +4808,7 @@
       <c r="A95" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="B95" s="23"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="9" t="s">
         <v>341</v>
       </c>
@@ -4793,7 +4817,7 @@
       <c r="A96" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B96" s="23"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="9" t="s">
         <v>342</v>
       </c>
@@ -4802,7 +4826,7 @@
       <c r="A97" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B97" s="23"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="9" t="s">
         <v>343</v>
       </c>
@@ -4811,7 +4835,7 @@
       <c r="A98" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B98" s="23"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="9" t="s">
         <v>344</v>
       </c>
@@ -4820,7 +4844,7 @@
       <c r="A99" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B99" s="23"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="9" t="s">
         <v>345</v>
       </c>
@@ -4829,7 +4853,7 @@
       <c r="A100" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B100" s="23"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="9" t="s">
         <v>346</v>
       </c>
@@ -4838,7 +4862,7 @@
       <c r="A101" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B101" s="23"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="9" t="s">
         <v>347</v>
       </c>
@@ -4847,7 +4871,7 @@
       <c r="A102" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="B102" s="23"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="9" t="s">
         <v>348</v>
       </c>
@@ -4856,7 +4880,7 @@
       <c r="A103" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="B103" s="23"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="9" t="s">
         <v>349</v>
       </c>
@@ -4865,7 +4889,7 @@
       <c r="A104" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="B104" s="23"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="9" t="s">
         <v>350</v>
       </c>
@@ -4874,7 +4898,7 @@
       <c r="A105" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B105" s="23"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="9" t="s">
         <v>351</v>
       </c>
@@ -4883,7 +4907,7 @@
       <c r="A106" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B106" s="23"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="9" t="s">
         <v>352</v>
       </c>
@@ -4892,7 +4916,7 @@
       <c r="A107" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B107" s="23"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="9" t="s">
         <v>353</v>
       </c>
@@ -4901,7 +4925,7 @@
       <c r="A108" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B108" s="23"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="9" t="s">
         <v>354</v>
       </c>
@@ -4910,7 +4934,7 @@
       <c r="A109" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B109" s="23"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="9" t="s">
         <v>355</v>
       </c>
@@ -4919,7 +4943,7 @@
       <c r="A110" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B110" s="23"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="9" t="s">
         <v>356</v>
       </c>
@@ -4928,7 +4952,7 @@
       <c r="A111" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B111" s="23"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="9" t="s">
         <v>357</v>
       </c>
@@ -4937,7 +4961,7 @@
       <c r="A112" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B112" s="23"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="9" t="s">
         <v>358</v>
       </c>
@@ -4946,7 +4970,7 @@
       <c r="A113" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B113" s="23"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="9" t="s">
         <v>359</v>
       </c>
@@ -4955,7 +4979,7 @@
       <c r="A114" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B114" s="23"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="9" t="s">
         <v>360</v>
       </c>
@@ -4964,7 +4988,7 @@
       <c r="A115" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B115" s="23"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="9" t="s">
         <v>361</v>
       </c>
@@ -4973,7 +4997,7 @@
       <c r="A116" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B116" s="23"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="9" t="s">
         <v>362</v>
       </c>
@@ -4982,7 +5006,7 @@
       <c r="A117" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B117" s="23"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="9" t="s">
         <v>363</v>
       </c>
@@ -4991,7 +5015,7 @@
       <c r="A118" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B118" s="23"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="9" t="s">
         <v>364</v>
       </c>
@@ -5000,7 +5024,7 @@
       <c r="A119" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B119" s="23"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="9" t="s">
         <v>365</v>
       </c>
@@ -5009,7 +5033,7 @@
       <c r="A120" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="B120" s="23"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="9" t="s">
         <v>366</v>
       </c>
@@ -5018,7 +5042,7 @@
       <c r="A121" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="B121" s="23"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="9" t="s">
         <v>367</v>
       </c>
@@ -5027,7 +5051,7 @@
       <c r="A122" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B122" s="23"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="9" t="s">
         <v>368</v>
       </c>
@@ -5036,7 +5060,7 @@
       <c r="A123" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B123" s="23"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="9" t="s">
         <v>369</v>
       </c>
@@ -5045,7 +5069,7 @@
       <c r="A124" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B124" s="23"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="9" t="s">
         <v>370</v>
       </c>
@@ -5054,7 +5078,7 @@
       <c r="A125" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B125" s="23"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="9" t="s">
         <v>371</v>
       </c>
@@ -5063,7 +5087,7 @@
       <c r="A126" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B126" s="23"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="9" t="s">
         <v>372</v>
       </c>
@@ -5072,7 +5096,7 @@
       <c r="A127" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B127" s="23"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="9" t="s">
         <v>373</v>
       </c>
@@ -5081,7 +5105,7 @@
       <c r="A128" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B128" s="23"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="9" t="s">
         <v>374</v>
       </c>
@@ -5090,7 +5114,7 @@
       <c r="A129" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B129" s="23"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="9" t="s">
         <v>375</v>
       </c>
@@ -5099,7 +5123,7 @@
       <c r="A130" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B130" s="23"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="9" t="s">
         <v>376</v>
       </c>
@@ -5108,7 +5132,7 @@
       <c r="A131" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B131" s="23"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="9" t="s">
         <v>377</v>
       </c>
@@ -5117,7 +5141,7 @@
       <c r="A132" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B132" s="23"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="9" t="s">
         <v>378</v>
       </c>
@@ -5210,22 +5234,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5290,115 +5314,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>185</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5462,16 +5486,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5495,19 +5519,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5569,13 +5593,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5632,7 +5656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -5649,13 +5673,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>446</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5675,13 +5699,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5701,13 +5725,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>519</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5727,8 +5751,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5748,8 +5772,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>602</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5769,8 +5793,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>604</v>
       </c>
       <c r="D6" s="2"/>
@@ -5782,7 +5806,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>605</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -5804,7 +5828,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>606</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -5824,13 +5848,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6092,16 +6116,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6169,61 +6193,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>559</v>
       </c>
     </row>
@@ -6243,7 +6267,7 @@
       <c r="E2" t="s">
         <v>633</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>563</v>
       </c>
       <c r="G2" t="s">
@@ -6282,7 +6306,7 @@
       <c r="R2" t="s">
         <v>573</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="26" t="s">
         <v>574</v>
       </c>
     </row>
@@ -6302,7 +6326,7 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>563</v>
       </c>
       <c r="G3" t="s">
@@ -6341,7 +6365,7 @@
       <c r="R3" t="s">
         <v>573</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="26" t="s">
         <v>574</v>
       </c>
     </row>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB94FF9B-BCCD-E946-A813-485626BCA827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D816A9-CF3C-8541-B9FA-404B5E6FC69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52040" yWindow="500" windowWidth="49020" windowHeight="26820" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="52040" yWindow="500" windowWidth="49020" windowHeight="26820" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="644">
   <si>
     <t>Screening</t>
   </si>
@@ -1647,9 +1647,6 @@
     <t>study_version</t>
   </si>
   <si>
-    <t>Approval</t>
-  </si>
-  <si>
     <t>Design approval date</t>
   </si>
   <si>
@@ -2008,6 +2005,15 @@
   </si>
   <si>
     <t>ACME Pharma||ACME City| MA | 4628 | USA</t>
+  </si>
+  <si>
+    <t>APPROVAL_1</t>
+  </si>
+  <si>
+    <t>APPROVAL_2</t>
+  </si>
+  <si>
+    <t>APPROVAL_3</t>
   </si>
 </sst>
 </file>
@@ -2164,17 +2170,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2491,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2510,7 +2516,7 @@
         <v>445</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2637,7 +2643,7 @@
         <v>519</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2645,68 +2651,68 @@
         <v>520</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C17" t="s">
         <v>521</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>522</v>
       </c>
-      <c r="D17" t="s">
-        <v>523</v>
-      </c>
       <c r="E17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C18" t="s">
         <v>525</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>526</v>
       </c>
-      <c r="D18" t="s">
-        <v>527</v>
-      </c>
       <c r="E18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="C19" t="s">
         <v>525</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>526</v>
       </c>
-      <c r="D19" t="s">
-        <v>527</v>
-      </c>
       <c r="E19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F19" s="24">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -2760,49 +2766,49 @@
         <v>47</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>555</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2810,58 +2816,58 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" t="s">
         <v>557</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>558</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>559</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>560</v>
+      </c>
+      <c r="H2" t="s">
         <v>630</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>561</v>
       </c>
-      <c r="H2" t="s">
-        <v>631</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>562</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>563</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>564</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>565</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>566</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>567</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>568</v>
-      </c>
-      <c r="P2" t="s">
-        <v>569</v>
       </c>
       <c r="Q2" t="s">
         <v>156</v>
       </c>
       <c r="R2" t="s">
+        <v>569</v>
+      </c>
+      <c r="S2" s="26" t="s">
         <v>570</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -2869,58 +2875,58 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C3" t="s">
         <v>572</v>
       </c>
-      <c r="C3" t="s">
-        <v>573</v>
-      </c>
       <c r="D3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="G3" t="s">
         <v>560</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>631</v>
+      </c>
+      <c r="I3" t="s">
         <v>561</v>
       </c>
-      <c r="H3" t="s">
-        <v>632</v>
-      </c>
-      <c r="I3" t="s">
-        <v>562</v>
-      </c>
       <c r="J3" t="s">
+        <v>573</v>
+      </c>
+      <c r="K3" t="s">
         <v>574</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>575</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>565</v>
+      </c>
+      <c r="N3" t="s">
+        <v>566</v>
+      </c>
+      <c r="O3" t="s">
+        <v>567</v>
+      </c>
+      <c r="P3" t="s">
         <v>576</v>
-      </c>
-      <c r="M3" t="s">
-        <v>566</v>
-      </c>
-      <c r="N3" t="s">
-        <v>567</v>
-      </c>
-      <c r="O3" t="s">
-        <v>568</v>
-      </c>
-      <c r="P3" t="s">
-        <v>577</v>
       </c>
       <c r="Q3" t="s">
         <v>156</v>
       </c>
       <c r="R3" t="s">
+        <v>569</v>
+      </c>
+      <c r="S3" s="26" t="s">
         <v>570</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -2962,10 +2968,10 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" t="s">
         <v>539</v>
-      </c>
-      <c r="C2" t="s">
-        <v>540</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>48</v>
@@ -2976,10 +2982,10 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" t="s">
         <v>541</v>
-      </c>
-      <c r="C3" t="s">
-        <v>542</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>49</v>
@@ -3011,7 +3017,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>445</v>
@@ -3023,13 +3029,13 @@
         <v>518</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>580</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>51</v>
@@ -3037,10 +3043,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B2" t="s">
         <v>581</v>
-      </c>
-      <c r="B2" t="s">
-        <v>582</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3054,24 +3060,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" t="s">
         <v>583</v>
       </c>
-      <c r="B3" t="s">
-        <v>584</v>
-      </c>
       <c r="G3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -3109,10 +3115,10 @@
         <v>53</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>534</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>535</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>54</v>
@@ -3124,13 +3130,13 @@
         <v>55</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>537</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>538</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>56</v>
@@ -3146,7 +3152,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>82</v>
@@ -3170,7 +3176,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>83</v>
@@ -3676,7 +3682,7 @@
         <v>50</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>95</v>
@@ -3694,7 +3700,7 @@
         <v>96</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3708,7 +3714,7 @@
         <v>99</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E2" t="s">
         <v>100</v>
@@ -3726,7 +3732,7 @@
         <v>101</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3735,7 +3741,7 @@
         <v>129</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3744,7 +3750,7 @@
         <v>130</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3758,7 +3764,7 @@
         <v>99</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E5" t="s">
         <v>133</v>
@@ -3776,7 +3782,7 @@
         <v>135</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -5447,7 +5453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E342BE27-C269-E84C-8054-303AE269334E}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -5461,22 +5467,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5485,10 +5491,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -5497,7 +5503,7 @@
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5518,7 +5524,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="31"/>
+      <c r="F4" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5545,7 +5551,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5561,7 +5567,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -5588,109 +5594,109 @@
       <c r="A1" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -5757,16 +5763,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5954,19 +5960,19 @@
         <v>445</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -5983,13 +5989,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>193</v>
@@ -6006,7 +6012,7 @@
         <v>518</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -6015,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>193</v>
@@ -6027,46 +6033,46 @@
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6078,7 +6084,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6100,7 +6106,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>178</v>
@@ -6213,123 +6219,123 @@
         <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>607</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B2" t="s">
         <v>609</v>
-      </c>
-      <c r="B2" t="s">
-        <v>610</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="E2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G2" t="s">
         <v>611</v>
       </c>
-      <c r="E2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F2" t="s">
-        <v>590</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>612</v>
-      </c>
-      <c r="H2" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B3" t="s">
         <v>614</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>615</v>
       </c>
-      <c r="C3" t="s">
-        <v>616</v>
-      </c>
       <c r="D3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F3" t="s">
         <v>590</v>
-      </c>
-      <c r="F3" t="s">
-        <v>591</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B4" t="s">
         <v>618</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D4" t="s">
         <v>619</v>
       </c>
-      <c r="C4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>590</v>
+      </c>
+      <c r="F4" t="s">
+        <v>590</v>
+      </c>
+      <c r="G4" t="s">
         <v>620</v>
-      </c>
-      <c r="E4" t="s">
-        <v>591</v>
-      </c>
-      <c r="F4" t="s">
-        <v>591</v>
-      </c>
-      <c r="G4" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D5" t="s">
         <v>622</v>
       </c>
-      <c r="B5" t="s">
-        <v>629</v>
-      </c>
-      <c r="C5" t="s">
-        <v>596</v>
-      </c>
-      <c r="D5" t="s">
-        <v>623</v>
-      </c>
       <c r="E5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -6337,31 +6343,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>623</v>
+      </c>
+      <c r="B6" t="s">
         <v>624</v>
-      </c>
-      <c r="B6" t="s">
-        <v>625</v>
       </c>
       <c r="C6" t="s">
         <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D816A9-CF3C-8541-B9FA-404B5E6FC69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BECC9D-CE68-EF4F-8B99-079F637C7308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52040" yWindow="500" windowWidth="49020" windowHeight="26820" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51420" yWindow="500" windowWidth="49020" windowHeight="26820" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="645">
   <si>
     <t>Screening</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>interventionModel</t>
-  </si>
-  <si>
-    <t>trialTypes</t>
   </si>
   <si>
     <t>DUNS</t>
@@ -2014,6 +2011,12 @@
   </si>
   <si>
     <t>APPROVAL_3</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2174,12 +2177,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2497,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2513,10 +2510,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2540,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2548,68 +2545,68 @@
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>17</v>
@@ -2617,102 +2614,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>519</v>
-      </c>
       <c r="G16" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C17" t="s">
         <v>520</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>521</v>
       </c>
-      <c r="D17" t="s">
-        <v>522</v>
-      </c>
       <c r="E17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C18" t="s">
         <v>524</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>525</v>
       </c>
-      <c r="D18" t="s">
-        <v>526</v>
-      </c>
       <c r="E18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C19" t="s">
         <v>524</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>525</v>
       </c>
-      <c r="D19" t="s">
-        <v>526</v>
-      </c>
       <c r="E19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F19" s="24">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -2754,179 +2751,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="E1" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>554</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2" t="s">
         <v>556</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>557</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>559</v>
+      </c>
+      <c r="H2" t="s">
         <v>629</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>560</v>
       </c>
-      <c r="H2" t="s">
-        <v>630</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>561</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>562</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>563</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>564</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>565</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>566</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>567</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" t="s">
         <v>568</v>
       </c>
-      <c r="Q2" t="s">
-        <v>156</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="26" t="s">
         <v>569</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" t="s">
         <v>571</v>
       </c>
-      <c r="C3" t="s">
-        <v>572</v>
-      </c>
       <c r="D3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="G3" t="s">
         <v>559</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>630</v>
+      </c>
+      <c r="I3" t="s">
         <v>560</v>
       </c>
-      <c r="H3" t="s">
-        <v>631</v>
-      </c>
-      <c r="I3" t="s">
-        <v>561</v>
-      </c>
       <c r="J3" t="s">
+        <v>572</v>
+      </c>
+      <c r="K3" t="s">
         <v>573</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>574</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>564</v>
+      </c>
+      <c r="N3" t="s">
+        <v>565</v>
+      </c>
+      <c r="O3" t="s">
+        <v>566</v>
+      </c>
+      <c r="P3" t="s">
         <v>575</v>
       </c>
-      <c r="M3" t="s">
-        <v>565</v>
-      </c>
-      <c r="N3" t="s">
-        <v>566</v>
-      </c>
-      <c r="O3" t="s">
-        <v>567</v>
-      </c>
-      <c r="P3" t="s">
-        <v>576</v>
-      </c>
       <c r="Q3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R3" t="s">
+        <v>568</v>
+      </c>
+      <c r="S3" s="26" t="s">
         <v>569</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -2951,44 +2948,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C2" t="s">
         <v>538</v>
       </c>
-      <c r="C2" t="s">
-        <v>539</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C3" t="s">
         <v>540</v>
       </c>
-      <c r="C3" t="s">
-        <v>541</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3017,36 +3014,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>579</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" t="s">
         <v>580</v>
-      </c>
-      <c r="B2" t="s">
-        <v>581</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3055,29 +3052,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" t="s">
         <v>582</v>
       </c>
-      <c r="B3" t="s">
-        <v>583</v>
-      </c>
       <c r="G3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -3109,85 +3106,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>536</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3196,16 +3193,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3214,16 +3211,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3232,16 +3229,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3250,16 +3247,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3268,16 +3265,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3286,16 +3283,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3304,16 +3301,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3322,16 +3319,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3340,16 +3337,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3358,16 +3355,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3673,116 +3670,116 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>634</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="E2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" t="s">
-        <v>101</v>
-      </c>
       <c r="J2" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D3" s="10"/>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D4" s="10"/>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="E5" t="s">
         <v>132</v>
       </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>133</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" t="s">
         <v>134</v>
       </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" t="s">
-        <v>135</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -3811,65 +3808,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" t="s">
         <v>154</v>
       </c>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>156</v>
-      </c>
-      <c r="G3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3902,137 +3899,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4059,104 +4056,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>187</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4183,16 +4180,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>247</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -4201,1212 +4198,1212 @@
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>514</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B69" s="21"/>
       <c r="C69" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B76" s="21"/>
       <c r="C76" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B77" s="21"/>
       <c r="C77" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B78" s="21"/>
       <c r="C78" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B80" s="21"/>
       <c r="C80" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B81" s="21"/>
       <c r="C81" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B83" s="21"/>
       <c r="C83" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B85" s="21"/>
       <c r="C85" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B87" s="21"/>
       <c r="C87" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B90" s="21"/>
       <c r="C90" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B132" s="21"/>
       <c r="C132" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -5430,18 +5427,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5477,33 +5474,33 @@
         <v>20</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
         <v>639</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5520,7 +5517,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5551,7 +5548,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5564,10 +5561,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -5577,10 +5574,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5592,10 +5589,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5603,10 +5600,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -5616,41 +5613,41 @@
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -5658,10 +5655,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>37</v>
+        <v>644</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -5672,7 +5669,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -5680,10 +5677,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -5691,88 +5688,122 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5797,19 +5828,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>233</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5817,16 +5848,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5837,13 +5868,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5871,13 +5902,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5885,10 +5916,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5896,10 +5927,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5907,10 +5938,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5918,10 +5949,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5951,68 +5982,68 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>144</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -6021,58 +6052,58 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6084,7 +6115,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6106,22 +6137,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6132,7 +6163,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6141,7 +6172,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -6207,135 +6238,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>606</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B2" t="s">
         <v>608</v>
-      </c>
-      <c r="B2" t="s">
-        <v>609</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G2" t="s">
         <v>610</v>
       </c>
-      <c r="E2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F2" t="s">
-        <v>589</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>611</v>
-      </c>
-      <c r="H2" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3" t="s">
         <v>613</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>614</v>
       </c>
-      <c r="C3" t="s">
-        <v>615</v>
-      </c>
       <c r="D3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F3" t="s">
         <v>589</v>
-      </c>
-      <c r="F3" t="s">
-        <v>590</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B4" t="s">
         <v>617</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>593</v>
+      </c>
+      <c r="D4" t="s">
         <v>618</v>
       </c>
-      <c r="C4" t="s">
-        <v>594</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F4" t="s">
+        <v>589</v>
+      </c>
+      <c r="G4" t="s">
         <v>619</v>
-      </c>
-      <c r="E4" t="s">
-        <v>590</v>
-      </c>
-      <c r="F4" t="s">
-        <v>590</v>
-      </c>
-      <c r="G4" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D5" t="s">
         <v>621</v>
       </c>
-      <c r="B5" t="s">
-        <v>628</v>
-      </c>
-      <c r="C5" t="s">
-        <v>595</v>
-      </c>
-      <c r="D5" t="s">
-        <v>622</v>
-      </c>
       <c r="E5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -6343,31 +6374,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B6" t="s">
         <v>623</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E6" t="s">
+        <v>591</v>
+      </c>
+      <c r="F6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G6" t="s">
+        <v>626</v>
+      </c>
+      <c r="H6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="C6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" t="s">
-        <v>622</v>
-      </c>
-      <c r="E6" t="s">
-        <v>592</v>
-      </c>
-      <c r="F6" t="s">
-        <v>590</v>
-      </c>
-      <c r="G6" t="s">
-        <v>627</v>
-      </c>
-      <c r="H6" t="s">
-        <v>612</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -6394,16 +6425,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6411,7 +6442,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6419,13 +6450,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
         <v>245</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BECC9D-CE68-EF4F-8B99-079F637C7308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B3FB2-D99E-7942-9A6A-C00C414A4A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51420" yWindow="500" windowWidth="49020" windowHeight="26820" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1977,12 +1977,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>populationSubset</t>
   </si>
   <si>
@@ -2017,6 +2011,12 @@
   </si>
   <si>
     <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2105,7 +2105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2177,6 +2177,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2648,7 +2651,7 @@
         <v>519</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C17" t="s">
         <v>520</v>
@@ -2671,7 +2674,7 @@
         <v>523</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C18" t="s">
         <v>524</v>
@@ -2694,7 +2697,7 @@
         <v>523</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C19" t="s">
         <v>524</v>
@@ -3086,7 +3089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -3148,8 +3151,8 @@
       <c r="D2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>631</v>
+      <c r="E2" s="10" t="s">
+        <v>643</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>81</v>
@@ -3172,8 +3175,8 @@
       <c r="D3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>632</v>
+      <c r="E3" s="30" t="s">
+        <v>644</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>82</v>
@@ -3679,7 +3682,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>94</v>
@@ -3697,7 +3700,7 @@
         <v>95</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3729,7 +3732,7 @@
         <v>100</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3738,7 +3741,7 @@
         <v>128</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3747,7 +3750,7 @@
         <v>129</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3779,7 +3782,7 @@
         <v>134</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -5488,10 +5491,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C2" t="s">
         <v>636</v>
-      </c>
-      <c r="C2" t="s">
-        <v>638</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -5500,7 +5503,7 @@
         <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5548,7 +5551,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5564,7 +5567,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -5576,7 +5579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -5655,7 +5658,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>124</v>
@@ -5719,7 +5722,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>

--- a/tests/integration_test_files/scope_1.xlsx
+++ b/tests/integration_test_files/scope_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B3FB2-D99E-7942-9A6A-C00C414A4A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA2EC48-DD13-5040-8EAF-6B3298361848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -461,12 +461,6 @@
     <t>Really really bad shit</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
   <si>
@@ -2017,6 +2011,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -2175,11 +2175,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2513,10 +2513,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2625,94 +2625,94 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C17" t="s">
+        <v>518</v>
+      </c>
+      <c r="D17" t="s">
         <v>519</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="C17" t="s">
-        <v>520</v>
-      </c>
-      <c r="D17" t="s">
-        <v>521</v>
-      </c>
       <c r="E17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="C18" t="s">
+        <v>522</v>
+      </c>
+      <c r="D18" t="s">
         <v>523</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="C18" t="s">
-        <v>524</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>525</v>
-      </c>
-      <c r="E18" t="s">
-        <v>527</v>
       </c>
       <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C19" t="s">
+        <v>522</v>
+      </c>
+      <c r="D19" t="s">
         <v>523</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="C19" t="s">
-        <v>524</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>525</v>
-      </c>
-      <c r="E19" t="s">
-        <v>527</v>
       </c>
       <c r="F19" s="24">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -2754,61 +2754,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>552</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2816,58 +2816,58 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2" t="s">
         <v>555</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>557</v>
       </c>
-      <c r="E2" t="s">
-        <v>628</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="H2" t="s">
+        <v>627</v>
+      </c>
+      <c r="I2" t="s">
         <v>558</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>559</v>
       </c>
-      <c r="H2" t="s">
-        <v>629</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>560</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>561</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>562</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>563</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>564</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>565</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" t="s">
         <v>566</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="26" t="s">
         <v>567</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>155</v>
-      </c>
-      <c r="R2" t="s">
-        <v>568</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -2875,58 +2875,58 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="G3" t="s">
+        <v>557</v>
+      </c>
+      <c r="H3" t="s">
+        <v>628</v>
+      </c>
+      <c r="I3" t="s">
         <v>558</v>
       </c>
-      <c r="G3" t="s">
-        <v>559</v>
-      </c>
-      <c r="H3" t="s">
-        <v>630</v>
-      </c>
-      <c r="I3" t="s">
-        <v>560</v>
-      </c>
       <c r="J3" t="s">
+        <v>570</v>
+      </c>
+      <c r="K3" t="s">
+        <v>571</v>
+      </c>
+      <c r="L3" t="s">
         <v>572</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>562</v>
+      </c>
+      <c r="N3" t="s">
+        <v>563</v>
+      </c>
+      <c r="O3" t="s">
+        <v>564</v>
+      </c>
+      <c r="P3" t="s">
         <v>573</v>
       </c>
-      <c r="L3" t="s">
-        <v>574</v>
-      </c>
-      <c r="M3" t="s">
-        <v>564</v>
-      </c>
-      <c r="N3" t="s">
-        <v>565</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3" t="s">
         <v>566</v>
       </c>
-      <c r="P3" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>155</v>
-      </c>
-      <c r="R3" t="s">
-        <v>568</v>
-      </c>
       <c r="S3" s="26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -2951,13 +2951,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>46</v>
@@ -2968,10 +2968,10 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>47</v>
@@ -2982,10 +2982,10 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>48</v>
@@ -3017,25 +3017,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>50</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3060,24 +3060,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B4" t="s">
         <v>581</v>
       </c>
-      <c r="B4" t="s">
-        <v>583</v>
-      </c>
       <c r="G4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -3089,7 +3089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -3115,10 +3115,10 @@
         <v>52</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>53</v>
@@ -3130,13 +3130,13 @@
         <v>54</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>534</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>536</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>55</v>
@@ -3152,7 +3152,7 @@
         <v>56</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>81</v>
@@ -3175,8 +3175,8 @@
       <c r="D3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>644</v>
+      <c r="E3" s="29" t="s">
+        <v>642</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>82</v>
@@ -3682,7 +3682,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>94</v>
@@ -3700,7 +3700,7 @@
         <v>95</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3714,7 +3714,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E2" t="s">
         <v>99</v>
@@ -3732,7 +3732,7 @@
         <v>100</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3741,7 +3741,7 @@
         <v>128</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3750,7 +3750,7 @@
         <v>129</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E5" t="s">
         <v>132</v>
@@ -3782,7 +3782,7 @@
         <v>134</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -3814,62 +3814,62 @@
         <v>72</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" t="s">
         <v>150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>154</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3905,134 +3905,134 @@
         <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4062,101 +4062,101 @@
         <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4183,16 +4183,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -4201,1212 +4201,1212 @@
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B69" s="21"/>
       <c r="C69" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B76" s="21"/>
       <c r="C76" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B77" s="21"/>
       <c r="C77" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B78" s="21"/>
       <c r="C78" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B80" s="21"/>
       <c r="C80" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B81" s="21"/>
       <c r="C81" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B83" s="21"/>
       <c r="C83" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B85" s="21"/>
       <c r="C85" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B87" s="21"/>
       <c r="C87" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B90" s="21"/>
       <c r="C90" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B132" s="21"/>
       <c r="C132" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -5453,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E342BE27-C269-E84C-8054-303AE269334E}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5477,7 +5477,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>21</v>
@@ -5491,19 +5491,19 @@
         <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C2" t="s">
         <v>634</v>
-      </c>
-      <c r="C2" t="s">
-        <v>636</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>643</v>
       </c>
       <c r="F2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5520,7 +5520,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5551,7 +5551,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5567,7 +5567,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -5592,146 +5592,146 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+        <v>208</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+        <v>209</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>642</v>
-      </c>
-      <c r="B7" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+        <v>136</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+        <v>137</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>641</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+        <v>639</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>30</v>
@@ -5751,16 +5751,16 @@
         <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -5768,16 +5768,16 @@
         <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -5831,19 +5831,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5851,16 +5851,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5871,13 +5871,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5905,13 +5905,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5919,10 +5919,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5930,10 +5930,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5941,10 +5941,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5952,10 +5952,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5985,36 +5985,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>45</v>
@@ -6023,30 +6023,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>594</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -6055,10 +6055,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6067,46 +6067,46 @@
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6118,7 +6118,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6140,22 +6140,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6166,7 +6166,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6241,135 +6241,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E2" t="s">
+        <v>585</v>
+      </c>
+      <c r="F2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H2" t="s">
         <v>609</v>
-      </c>
-      <c r="E2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F2" t="s">
-        <v>588</v>
-      </c>
-      <c r="G2" t="s">
-        <v>610</v>
-      </c>
-      <c r="H2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C3" t="s">
         <v>612</v>
       </c>
-      <c r="B3" t="s">
-        <v>613</v>
-      </c>
-      <c r="C3" t="s">
-        <v>614</v>
-      </c>
       <c r="D3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" t="s">
         <v>616</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F4" t="s">
+        <v>587</v>
+      </c>
+      <c r="G4" t="s">
         <v>617</v>
-      </c>
-      <c r="C4" t="s">
-        <v>593</v>
-      </c>
-      <c r="D4" t="s">
-        <v>618</v>
-      </c>
-      <c r="E4" t="s">
-        <v>589</v>
-      </c>
-      <c r="F4" t="s">
-        <v>589</v>
-      </c>
-      <c r="G4" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -6377,31 +6377,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E6" t="s">
+        <v>589</v>
+      </c>
+      <c r="F6" t="s">
+        <v>587</v>
+      </c>
+      <c r="G6" t="s">
+        <v>624</v>
+      </c>
+      <c r="H6" t="s">
+        <v>609</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="B6" t="s">
-        <v>623</v>
-      </c>
-      <c r="C6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E6" t="s">
-        <v>591</v>
-      </c>
-      <c r="F6" t="s">
-        <v>589</v>
-      </c>
-      <c r="G6" t="s">
-        <v>626</v>
-      </c>
-      <c r="H6" t="s">
-        <v>611</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -6428,16 +6428,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6445,7 +6445,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6453,13 +6453,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
